--- a/SSIS/SSIS_Book/Cap5/DebugAndExecute/DebugAndExecute/DestinationExcel.xlsx
+++ b/SSIS/SSIS_Book/Cap5/DebugAndExecute/DebugAndExecute/DestinationExcel.xlsx
@@ -1,16 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Aplicatii VS\SSIS\SQL Server Integration Services (SSIS) –Step by Step Tutorial\Cap5\DebugAndExecute\DebugAndExecute\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E346B69-14CD-40F1-9F7F-291B104A05D2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7208B652-233F-4445-974A-D991466833BA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -336,16 +331,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3">
   <dimension ref="A1:N78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
-      <selection activeCell="S6" sqref="S6"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row spans="1:14" x14ac:dyDescent="0.3" outlineLevel="0" r="1">
+    <row spans="1:14" x14ac:dyDescent="0.25" outlineLevel="0" r="1">
       <c r="A1">
         <v>1</v>
       </c>
@@ -432,12 +427,12 @@
       </c>
       <c r="I2" s="0" t="inlineStr">
         <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J2" s="0" t="inlineStr">
+        <is>
           <t>10</t>
-        </is>
-      </c>
-      <c r="J2" s="0" t="inlineStr">
-        <is>
-          <t>False</t>
         </is>
       </c>
     </row>
@@ -484,12 +479,12 @@
       </c>
       <c r="I3" s="0" t="inlineStr">
         <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J3" s="0" t="inlineStr">
+        <is>
           <t>25</t>
-        </is>
-      </c>
-      <c r="J3" s="0" t="inlineStr">
-        <is>
-          <t>False</t>
         </is>
       </c>
     </row>
@@ -536,12 +531,12 @@
       </c>
       <c r="I4" s="0" t="inlineStr">
         <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J4" s="0" t="inlineStr">
+        <is>
           <t>25</t>
-        </is>
-      </c>
-      <c r="J4" s="0" t="inlineStr">
-        <is>
-          <t>False</t>
         </is>
       </c>
     </row>
@@ -588,12 +583,12 @@
       </c>
       <c r="I5" s="0" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>False</t>
         </is>
       </c>
       <c r="J5" s="0" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -640,12 +635,12 @@
       </c>
       <c r="I6" s="0" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>True</t>
         </is>
       </c>
       <c r="J6" s="0" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -692,12 +687,12 @@
       </c>
       <c r="I7" s="0" t="inlineStr">
         <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J7" s="0" t="inlineStr">
+        <is>
           <t>25</t>
-        </is>
-      </c>
-      <c r="J7" s="0" t="inlineStr">
-        <is>
-          <t>False</t>
         </is>
       </c>
     </row>
@@ -744,12 +739,12 @@
       </c>
       <c r="I8" s="0" t="inlineStr">
         <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J8" s="0" t="inlineStr">
+        <is>
           <t>10</t>
-        </is>
-      </c>
-      <c r="J8" s="0" t="inlineStr">
-        <is>
-          <t>False</t>
         </is>
       </c>
     </row>
@@ -796,12 +791,12 @@
       </c>
       <c r="I9" s="0" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>False</t>
         </is>
       </c>
       <c r="J9" s="0" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -848,12 +843,12 @@
       </c>
       <c r="I10" s="0" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>True</t>
         </is>
       </c>
       <c r="J10" s="0" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -900,12 +895,12 @@
       </c>
       <c r="I11" s="0" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>False</t>
         </is>
       </c>
       <c r="J11" s="0" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -952,12 +947,12 @@
       </c>
       <c r="I12" s="0" t="inlineStr">
         <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J12" s="0" t="inlineStr">
+        <is>
           <t>30</t>
-        </is>
-      </c>
-      <c r="J12" s="0" t="inlineStr">
-        <is>
-          <t>False</t>
         </is>
       </c>
     </row>
@@ -1004,12 +999,12 @@
       </c>
       <c r="I13" s="0" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>False</t>
         </is>
       </c>
       <c r="J13" s="0" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1056,12 +1051,12 @@
       </c>
       <c r="I14" s="0" t="inlineStr">
         <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J14" s="0" t="inlineStr">
+        <is>
           <t>5</t>
-        </is>
-      </c>
-      <c r="J14" s="0" t="inlineStr">
-        <is>
-          <t>False</t>
         </is>
       </c>
     </row>
@@ -1108,12 +1103,12 @@
       </c>
       <c r="I15" s="0" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>False</t>
         </is>
       </c>
       <c r="J15" s="0" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1160,12 +1155,12 @@
       </c>
       <c r="I16" s="0" t="inlineStr">
         <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J16" s="0" t="inlineStr">
+        <is>
           <t>5</t>
-        </is>
-      </c>
-      <c r="J16" s="0" t="inlineStr">
-        <is>
-          <t>False</t>
         </is>
       </c>
     </row>
@@ -1212,12 +1207,12 @@
       </c>
       <c r="I17" s="0" t="inlineStr">
         <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J17" s="0" t="inlineStr">
+        <is>
           <t>10</t>
-        </is>
-      </c>
-      <c r="J17" s="0" t="inlineStr">
-        <is>
-          <t>False</t>
         </is>
       </c>
     </row>
@@ -1264,12 +1259,12 @@
       </c>
       <c r="I18" s="0" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>True</t>
         </is>
       </c>
       <c r="J18" s="0" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1316,12 +1311,12 @@
       </c>
       <c r="I19" s="0" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>False</t>
         </is>
       </c>
       <c r="J19" s="0" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1368,12 +1363,12 @@
       </c>
       <c r="I20" s="0" t="inlineStr">
         <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J20" s="0" t="inlineStr">
+        <is>
           <t>5</t>
-        </is>
-      </c>
-      <c r="J20" s="0" t="inlineStr">
-        <is>
-          <t>False</t>
         </is>
       </c>
     </row>
@@ -1420,12 +1415,12 @@
       </c>
       <c r="I21" s="0" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>False</t>
         </is>
       </c>
       <c r="J21" s="0" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1472,12 +1467,12 @@
       </c>
       <c r="I22" s="0" t="inlineStr">
         <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J22" s="0" t="inlineStr">
+        <is>
           <t>5</t>
-        </is>
-      </c>
-      <c r="J22" s="0" t="inlineStr">
-        <is>
-          <t>False</t>
         </is>
       </c>
     </row>
@@ -1524,12 +1519,12 @@
       </c>
       <c r="I23" s="0" t="inlineStr">
         <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J23" s="0" t="inlineStr">
+        <is>
           <t>25</t>
-        </is>
-      </c>
-      <c r="J23" s="0" t="inlineStr">
-        <is>
-          <t>False</t>
         </is>
       </c>
     </row>
@@ -1576,12 +1571,12 @@
       </c>
       <c r="I24" s="0" t="inlineStr">
         <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J24" s="0" t="inlineStr">
+        <is>
           <t>25</t>
-        </is>
-      </c>
-      <c r="J24" s="0" t="inlineStr">
-        <is>
-          <t>False</t>
         </is>
       </c>
     </row>
@@ -1628,12 +1623,12 @@
       </c>
       <c r="I25" s="0" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>True</t>
         </is>
       </c>
       <c r="J25" s="0" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1680,12 +1675,12 @@
       </c>
       <c r="I26" s="0" t="inlineStr">
         <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J26" s="0" t="inlineStr">
+        <is>
           <t>30</t>
-        </is>
-      </c>
-      <c r="J26" s="0" t="inlineStr">
-        <is>
-          <t>False</t>
         </is>
       </c>
     </row>
@@ -1732,12 +1727,12 @@
       </c>
       <c r="I27" s="0" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>False</t>
         </is>
       </c>
       <c r="J27" s="0" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1784,12 +1779,12 @@
       </c>
       <c r="I28" s="0" t="inlineStr">
         <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J28" s="0" t="inlineStr">
+        <is>
           <t>30</t>
-        </is>
-      </c>
-      <c r="J28" s="0" t="inlineStr">
-        <is>
-          <t>False</t>
         </is>
       </c>
     </row>
@@ -1836,12 +1831,12 @@
       </c>
       <c r="I29" s="0" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>True</t>
         </is>
       </c>
       <c r="J29" s="0" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1888,12 +1883,12 @@
       </c>
       <c r="I30" s="0" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>True</t>
         </is>
       </c>
       <c r="J30" s="0" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1940,12 +1935,12 @@
       </c>
       <c r="I31" s="0" t="inlineStr">
         <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J31" s="0" t="inlineStr">
+        <is>
           <t>15</t>
-        </is>
-      </c>
-      <c r="J31" s="0" t="inlineStr">
-        <is>
-          <t>False</t>
         </is>
       </c>
     </row>
@@ -1992,12 +1987,12 @@
       </c>
       <c r="I32" s="0" t="inlineStr">
         <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J32" s="0" t="inlineStr">
+        <is>
           <t>20</t>
-        </is>
-      </c>
-      <c r="J32" s="0" t="inlineStr">
-        <is>
-          <t>False</t>
         </is>
       </c>
     </row>
@@ -2044,12 +2039,12 @@
       </c>
       <c r="I33" s="0" t="inlineStr">
         <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J33" s="0" t="inlineStr">
+        <is>
           <t>25</t>
-        </is>
-      </c>
-      <c r="J33" s="0" t="inlineStr">
-        <is>
-          <t>False</t>
         </is>
       </c>
     </row>
@@ -2096,12 +2091,12 @@
       </c>
       <c r="I34" s="0" t="inlineStr">
         <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J34" s="0" t="inlineStr">
+        <is>
           <t>20</t>
-        </is>
-      </c>
-      <c r="J34" s="0" t="inlineStr">
-        <is>
-          <t>False</t>
         </is>
       </c>
     </row>
@@ -2148,12 +2143,12 @@
       </c>
       <c r="I35" s="0" t="inlineStr">
         <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J35" s="0" t="inlineStr">
+        <is>
           <t>15</t>
-        </is>
-      </c>
-      <c r="J35" s="0" t="inlineStr">
-        <is>
-          <t>False</t>
         </is>
       </c>
     </row>
@@ -2200,12 +2195,12 @@
       </c>
       <c r="I36" s="0" t="inlineStr">
         <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J36" s="0" t="inlineStr">
+        <is>
           <t>15</t>
-        </is>
-      </c>
-      <c r="J36" s="0" t="inlineStr">
-        <is>
-          <t>False</t>
         </is>
       </c>
     </row>
@@ -2252,12 +2247,12 @@
       </c>
       <c r="I37" s="0" t="inlineStr">
         <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J37" s="0" t="inlineStr">
+        <is>
           <t>20</t>
-        </is>
-      </c>
-      <c r="J37" s="0" t="inlineStr">
-        <is>
-          <t>False</t>
         </is>
       </c>
     </row>
@@ -2304,12 +2299,12 @@
       </c>
       <c r="I38" s="0" t="inlineStr">
         <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J38" s="0" t="inlineStr">
+        <is>
           <t>25</t>
-        </is>
-      </c>
-      <c r="J38" s="0" t="inlineStr">
-        <is>
-          <t>False</t>
         </is>
       </c>
     </row>
@@ -2356,12 +2351,12 @@
       </c>
       <c r="I39" s="0" t="inlineStr">
         <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J39" s="0" t="inlineStr">
+        <is>
           <t>15</t>
-        </is>
-      </c>
-      <c r="J39" s="0" t="inlineStr">
-        <is>
-          <t>False</t>
         </is>
       </c>
     </row>
@@ -2408,12 +2403,12 @@
       </c>
       <c r="I40" s="0" t="inlineStr">
         <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J40" s="0" t="inlineStr">
+        <is>
           <t>5</t>
-        </is>
-      </c>
-      <c r="J40" s="0" t="inlineStr">
-        <is>
-          <t>False</t>
         </is>
       </c>
     </row>
@@ -2460,12 +2455,12 @@
       </c>
       <c r="I41" s="0" t="inlineStr">
         <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J41" s="0" t="inlineStr">
+        <is>
           <t>30</t>
-        </is>
-      </c>
-      <c r="J41" s="0" t="inlineStr">
-        <is>
-          <t>False</t>
         </is>
       </c>
     </row>
@@ -2512,12 +2507,12 @@
       </c>
       <c r="I42" s="0" t="inlineStr">
         <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J42" s="0" t="inlineStr">
+        <is>
           <t>10</t>
-        </is>
-      </c>
-      <c r="J42" s="0" t="inlineStr">
-        <is>
-          <t>False</t>
         </is>
       </c>
     </row>
@@ -2564,12 +2559,12 @@
       </c>
       <c r="I43" s="0" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>True</t>
         </is>
       </c>
       <c r="J43" s="0" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -2616,12 +2611,12 @@
       </c>
       <c r="I44" s="0" t="inlineStr">
         <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J44" s="0" t="inlineStr">
+        <is>
           <t>25</t>
-        </is>
-      </c>
-      <c r="J44" s="0" t="inlineStr">
-        <is>
-          <t>False</t>
         </is>
       </c>
     </row>
@@ -2668,12 +2663,12 @@
       </c>
       <c r="I45" s="0" t="inlineStr">
         <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J45" s="0" t="inlineStr">
+        <is>
           <t>15</t>
-        </is>
-      </c>
-      <c r="J45" s="0" t="inlineStr">
-        <is>
-          <t>False</t>
         </is>
       </c>
     </row>
@@ -2720,12 +2715,12 @@
       </c>
       <c r="I46" s="0" t="inlineStr">
         <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J46" s="0" t="inlineStr">
+        <is>
           <t>15</t>
-        </is>
-      </c>
-      <c r="J46" s="0" t="inlineStr">
-        <is>
-          <t>False</t>
         </is>
       </c>
     </row>
@@ -2772,12 +2767,12 @@
       </c>
       <c r="I47" s="0" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>False</t>
         </is>
       </c>
       <c r="J47" s="0" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -2824,12 +2819,12 @@
       </c>
       <c r="I48" s="0" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>False</t>
         </is>
       </c>
       <c r="J48" s="0" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -2876,12 +2871,12 @@
       </c>
       <c r="I49" s="0" t="inlineStr">
         <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J49" s="0" t="inlineStr">
+        <is>
           <t>25</t>
-        </is>
-      </c>
-      <c r="J49" s="0" t="inlineStr">
-        <is>
-          <t>False</t>
         </is>
       </c>
     </row>
@@ -2928,12 +2923,12 @@
       </c>
       <c r="I50" s="0" t="inlineStr">
         <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J50" s="0" t="inlineStr">
+        <is>
           <t>15</t>
-        </is>
-      </c>
-      <c r="J50" s="0" t="inlineStr">
-        <is>
-          <t>False</t>
         </is>
       </c>
     </row>
@@ -2980,12 +2975,12 @@
       </c>
       <c r="I51" s="0" t="inlineStr">
         <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J51" s="0" t="inlineStr">
+        <is>
           <t>30</t>
-        </is>
-      </c>
-      <c r="J51" s="0" t="inlineStr">
-        <is>
-          <t>False</t>
         </is>
       </c>
     </row>
@@ -3032,12 +3027,12 @@
       </c>
       <c r="I52" s="0" t="inlineStr">
         <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J52" s="0" t="inlineStr">
+        <is>
           <t>10</t>
-        </is>
-      </c>
-      <c r="J52" s="0" t="inlineStr">
-        <is>
-          <t>False</t>
         </is>
       </c>
     </row>
@@ -3084,12 +3079,12 @@
       </c>
       <c r="I53" s="0" t="inlineStr">
         <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J53" s="0" t="inlineStr">
+        <is>
           <t>25</t>
-        </is>
-      </c>
-      <c r="J53" s="0" t="inlineStr">
-        <is>
-          <t>False</t>
         </is>
       </c>
     </row>
@@ -3136,12 +3131,12 @@
       </c>
       <c r="I54" s="0" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>True</t>
         </is>
       </c>
       <c r="J54" s="0" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -3188,12 +3183,12 @@
       </c>
       <c r="I55" s="0" t="inlineStr">
         <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J55" s="0" t="inlineStr">
+        <is>
           <t>10</t>
-        </is>
-      </c>
-      <c r="J55" s="0" t="inlineStr">
-        <is>
-          <t>False</t>
         </is>
       </c>
     </row>
@@ -3240,12 +3235,12 @@
       </c>
       <c r="I56" s="0" t="inlineStr">
         <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J56" s="0" t="inlineStr">
+        <is>
           <t>20</t>
-        </is>
-      </c>
-      <c r="J56" s="0" t="inlineStr">
-        <is>
-          <t>False</t>
         </is>
       </c>
     </row>
@@ -3292,12 +3287,12 @@
       </c>
       <c r="I57" s="0" t="inlineStr">
         <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J57" s="0" t="inlineStr">
+        <is>
           <t>30</t>
-        </is>
-      </c>
-      <c r="J57" s="0" t="inlineStr">
-        <is>
-          <t>False</t>
         </is>
       </c>
     </row>
@@ -3344,12 +3339,12 @@
       </c>
       <c r="I58" s="0" t="inlineStr">
         <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J58" s="0" t="inlineStr">
+        <is>
           <t>20</t>
-        </is>
-      </c>
-      <c r="J58" s="0" t="inlineStr">
-        <is>
-          <t>False</t>
         </is>
       </c>
     </row>
@@ -3396,12 +3391,12 @@
       </c>
       <c r="I59" s="0" t="inlineStr">
         <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J59" s="0" t="inlineStr">
+        <is>
           <t>20</t>
-        </is>
-      </c>
-      <c r="J59" s="0" t="inlineStr">
-        <is>
-          <t>False</t>
         </is>
       </c>
     </row>
@@ -3448,12 +3443,12 @@
       </c>
       <c r="I60" s="0" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>False</t>
         </is>
       </c>
       <c r="J60" s="0" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -3500,12 +3495,12 @@
       </c>
       <c r="I61" s="0" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>False</t>
         </is>
       </c>
       <c r="J61" s="0" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -3552,12 +3547,12 @@
       </c>
       <c r="I62" s="0" t="inlineStr">
         <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J62" s="0" t="inlineStr">
+        <is>
           <t>25</t>
-        </is>
-      </c>
-      <c r="J62" s="0" t="inlineStr">
-        <is>
-          <t>False</t>
         </is>
       </c>
     </row>
@@ -3604,12 +3599,12 @@
       </c>
       <c r="I63" s="0" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>False</t>
         </is>
       </c>
       <c r="J63" s="0" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -3656,12 +3651,12 @@
       </c>
       <c r="I64" s="0" t="inlineStr">
         <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J64" s="0" t="inlineStr">
+        <is>
           <t>5</t>
-        </is>
-      </c>
-      <c r="J64" s="0" t="inlineStr">
-        <is>
-          <t>False</t>
         </is>
       </c>
     </row>
@@ -3708,12 +3703,12 @@
       </c>
       <c r="I65" s="0" t="inlineStr">
         <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J65" s="0" t="inlineStr">
+        <is>
           <t>30</t>
-        </is>
-      </c>
-      <c r="J65" s="0" t="inlineStr">
-        <is>
-          <t>False</t>
         </is>
       </c>
     </row>
@@ -3760,12 +3755,12 @@
       </c>
       <c r="I66" s="0" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>False</t>
         </is>
       </c>
       <c r="J66" s="0" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -3812,12 +3807,12 @@
       </c>
       <c r="I67" s="0" t="inlineStr">
         <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J67" s="0" t="inlineStr">
+        <is>
           <t>20</t>
-        </is>
-      </c>
-      <c r="J67" s="0" t="inlineStr">
-        <is>
-          <t>False</t>
         </is>
       </c>
     </row>
@@ -3864,12 +3859,12 @@
       </c>
       <c r="I68" s="0" t="inlineStr">
         <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J68" s="0" t="inlineStr">
+        <is>
           <t>10</t>
-        </is>
-      </c>
-      <c r="J68" s="0" t="inlineStr">
-        <is>
-          <t>False</t>
         </is>
       </c>
     </row>
@@ -3916,12 +3911,12 @@
       </c>
       <c r="I69" s="0" t="inlineStr">
         <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J69" s="0" t="inlineStr">
+        <is>
           <t>15</t>
-        </is>
-      </c>
-      <c r="J69" s="0" t="inlineStr">
-        <is>
-          <t>False</t>
         </is>
       </c>
     </row>
@@ -3968,12 +3963,12 @@
       </c>
       <c r="I70" s="0" t="inlineStr">
         <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J70" s="0" t="inlineStr">
+        <is>
           <t>15</t>
-        </is>
-      </c>
-      <c r="J70" s="0" t="inlineStr">
-        <is>
-          <t>False</t>
         </is>
       </c>
     </row>
@@ -4020,12 +4015,12 @@
       </c>
       <c r="I71" s="0" t="inlineStr">
         <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J71" s="0" t="inlineStr">
+        <is>
           <t>30</t>
-        </is>
-      </c>
-      <c r="J71" s="0" t="inlineStr">
-        <is>
-          <t>False</t>
         </is>
       </c>
     </row>
@@ -4072,12 +4067,12 @@
       </c>
       <c r="I72" s="0" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>False</t>
         </is>
       </c>
       <c r="J72" s="0" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -4124,12 +4119,12 @@
       </c>
       <c r="I73" s="0" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>False</t>
         </is>
       </c>
       <c r="J73" s="0" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -4176,12 +4171,12 @@
       </c>
       <c r="I74" s="0" t="inlineStr">
         <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J74" s="0" t="inlineStr">
+        <is>
           <t>5</t>
-        </is>
-      </c>
-      <c r="J74" s="0" t="inlineStr">
-        <is>
-          <t>False</t>
         </is>
       </c>
     </row>
@@ -4228,12 +4223,12 @@
       </c>
       <c r="I75" s="0" t="inlineStr">
         <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J75" s="0" t="inlineStr">
+        <is>
           <t>5</t>
-        </is>
-      </c>
-      <c r="J75" s="0" t="inlineStr">
-        <is>
-          <t>False</t>
         </is>
       </c>
     </row>
@@ -4280,12 +4275,12 @@
       </c>
       <c r="I76" s="0" t="inlineStr">
         <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J76" s="0" t="inlineStr">
+        <is>
           <t>25</t>
-        </is>
-      </c>
-      <c r="J76" s="0" t="inlineStr">
-        <is>
-          <t>False</t>
         </is>
       </c>
     </row>
@@ -4332,12 +4327,12 @@
       </c>
       <c r="I77" s="0" t="inlineStr">
         <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J77" s="0" t="inlineStr">
+        <is>
           <t>20</t>
-        </is>
-      </c>
-      <c r="J77" s="0" t="inlineStr">
-        <is>
-          <t>False</t>
         </is>
       </c>
     </row>
@@ -4384,12 +4379,12 @@
       </c>
       <c r="I78" s="0" t="inlineStr">
         <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J78" s="0" t="inlineStr">
+        <is>
           <t>15</t>
-        </is>
-      </c>
-      <c r="J78" s="0" t="inlineStr">
-        <is>
-          <t>False</t>
         </is>
       </c>
     </row>
